--- a/biology/Zoologie/Argyrogrammana_placibilis/Argyrogrammana_placibilis.xlsx
+++ b/biology/Zoologie/Argyrogrammana_placibilis/Argyrogrammana_placibilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argyrogrammana placibilis est une espèce de papillons de la famille des Riodinidae et du genre Argyrogrammana.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Argyrogrammana placibilis a été initialement décrite en 1910 par l'entomologiste allemand Hans Stichel comme une sous-espèce d’Argyrogrammana occidentalis sous le taxon Argyrogrammana occidentalis placibilis. En 1996, Jason P. W. Hall et Keith R. Willmott (d) en font une espèce à part entière[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Argyrogrammana placibilis a été initialement décrite en 1910 par l'entomologiste allemand Hans Stichel comme une sous-espèce d’Argyrogrammana occidentalis sous le taxon Argyrogrammana occidentalis placibilis. En 1996, Jason P. W. Hall et Keith R. Willmott (d) en font une espèce à part entière
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Argyrogrammana placibilis est un papillon au dessus des ailes antérieures chez le mâle de couleur jaune orangé à lignes de damiers marron, plus nombreux vers l'extérieur et formant une double ligne submarginale avec une mince ligne bleu clair métallique entre elles, chez la femelle orange clair marqué de quelques points marron clair.
-Dans les deux sexes le revers présente une ornementation semblable en plus pâle[2].
+Dans les deux sexes le revers présente une ornementation semblable en plus pâle.
 </t>
         </is>
       </c>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,12 +618,49 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Argyrogrammana placibilis est présent en Guyane, au Brésil et au Pérou[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrogrammana placibilis est présent en Guyane, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Argyrogrammana_placibilis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argyrogrammana_placibilis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
